--- a/results/2500/v3/resultsSummaryTFIDF2500.xlsx
+++ b/results/2500/v3/resultsSummaryTFIDF2500.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programowanie\python\przetwarzanieJezykaNaturalnego\projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programowanie\python\przetwarzanieJezykaNaturalnego\projekt\results\2500\v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB37747-806F-4F73-943E-A387D64E037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B6EA07-2AD4-4848-9866-8C9F8B81EBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-21720" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,11 +978,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1076,71 +1083,71 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
         <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D5">
-        <v>0.94740000000000002</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="E5">
-        <v>0.99106784000000003</v>
+        <v>0.99248480000000006</v>
       </c>
       <c r="F5">
         <v>0.87239999999999995</v>
       </c>
       <c r="G5">
-        <v>0.94280992000000008</v>
+        <v>0.94426575999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
         <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D6">
-        <v>0.94740000000000002</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="E6">
-        <v>0.99106784000000003</v>
+        <v>0.99248480000000006</v>
       </c>
       <c r="F6">
         <v>0.87239999999999995</v>
       </c>
       <c r="G6">
-        <v>0.94280992000000008</v>
+        <v>0.94426575999999995</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="D7">
-        <v>0.94740000000000002</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="E7">
-        <v>0.99106784000000003</v>
+        <v>0.99248480000000006</v>
       </c>
       <c r="F7">
         <v>0.87239999999999995</v>
       </c>
       <c r="G7">
-        <v>0.94280992000000008</v>
+        <v>0.94426575999999995</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1214,1232 +1221,1232 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
         <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="D11">
-        <v>0.95499999999999996</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="E11">
-        <v>0.99248480000000006</v>
+        <v>0.99106784000000003</v>
       </c>
       <c r="F11">
         <v>0.87239999999999995</v>
       </c>
       <c r="G11">
-        <v>0.94426575999999995</v>
+        <v>0.94280992000000008</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
         <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D12">
-        <v>0.95499999999999996</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="E12">
-        <v>0.99248480000000006</v>
+        <v>0.99106784000000003</v>
       </c>
       <c r="F12">
         <v>0.87239999999999995</v>
       </c>
       <c r="G12">
-        <v>0.94426575999999995</v>
+        <v>0.94280992000000008</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
         <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="D13">
-        <v>0.95499999999999996</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="E13">
-        <v>0.99248480000000006</v>
+        <v>0.99106784000000003</v>
       </c>
       <c r="F13">
         <v>0.87239999999999995</v>
       </c>
       <c r="G13">
-        <v>0.94426575999999995</v>
+        <v>0.94280992000000008</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="D14">
-        <v>0.95479999999999998</v>
+        <v>0.9546</v>
       </c>
       <c r="E14">
-        <v>0.99299888000000003</v>
+        <v>0.99305135999999994</v>
       </c>
       <c r="F14">
         <v>0.87219999999999998</v>
       </c>
       <c r="G14">
-        <v>0.94265631999999999</v>
+        <v>0.94282911999999985</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="D15">
-        <v>0.95479999999999998</v>
+        <v>0.94820000000000004</v>
       </c>
       <c r="E15">
-        <v>0.99299328000000009</v>
+        <v>0.99136160000000006</v>
       </c>
       <c r="F15">
         <v>0.87219999999999998</v>
       </c>
       <c r="G15">
-        <v>0.94264880000000018</v>
+        <v>0.94270352000000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D16">
-        <v>0.95479999999999998</v>
+        <v>0.94820000000000004</v>
       </c>
       <c r="E16">
-        <v>0.99299888000000003</v>
+        <v>0.99136160000000006</v>
       </c>
       <c r="F16">
         <v>0.87219999999999998</v>
       </c>
       <c r="G16">
-        <v>0.94265631999999999</v>
+        <v>0.94270352000000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="D17">
-        <v>0.95479999999999998</v>
+        <v>0.94820000000000004</v>
       </c>
       <c r="E17">
-        <v>0.99299328000000009</v>
+        <v>0.99136160000000006</v>
       </c>
       <c r="F17">
         <v>0.87219999999999998</v>
       </c>
       <c r="G17">
-        <v>0.94264880000000018</v>
+        <v>0.94270352000000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D18">
-        <v>0.95479999999999998</v>
+        <v>0.94820000000000004</v>
       </c>
       <c r="E18">
-        <v>0.99299888000000003</v>
+        <v>0.9913592</v>
       </c>
       <c r="F18">
         <v>0.87219999999999998</v>
       </c>
       <c r="G18">
-        <v>0.94265631999999999</v>
+        <v>0.94270095999999992</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="D19">
-        <v>0.95479999999999998</v>
+        <v>0.94820000000000004</v>
       </c>
       <c r="E19">
-        <v>0.99299328000000009</v>
+        <v>0.9913592</v>
       </c>
       <c r="F19">
         <v>0.87219999999999998</v>
       </c>
       <c r="G19">
-        <v>0.94264880000000018</v>
+        <v>0.94270095999999992</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="D20">
-        <v>0.96860000000000002</v>
+        <v>0.94820000000000004</v>
       </c>
       <c r="E20">
-        <v>0.99623919999999999</v>
+        <v>0.9913592</v>
       </c>
       <c r="F20">
         <v>0.87219999999999998</v>
       </c>
       <c r="G20">
-        <v>0.94198863999999982</v>
+        <v>0.94270095999999992</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="D21">
-        <v>0.96860000000000002</v>
+        <v>0.94840000000000002</v>
       </c>
       <c r="E21">
-        <v>0.99623919999999999</v>
+        <v>0.99136095999999996</v>
       </c>
       <c r="F21">
         <v>0.87219999999999998</v>
       </c>
       <c r="G21">
-        <v>0.94198863999999982</v>
+        <v>0.94270032000000015</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="D22">
-        <v>0.96860000000000002</v>
+        <v>0.94840000000000002</v>
       </c>
       <c r="E22">
-        <v>0.99623919999999999</v>
+        <v>0.99135983999999999</v>
       </c>
       <c r="F22">
         <v>0.87219999999999998</v>
       </c>
       <c r="G22">
-        <v>0.94198863999999982</v>
+        <v>0.94269775999999994</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>0.94820000000000004</v>
+        <v>0.95479999999999998</v>
       </c>
       <c r="E23">
-        <v>0.9913592</v>
+        <v>0.99299888000000003</v>
       </c>
       <c r="F23">
         <v>0.87219999999999998</v>
       </c>
       <c r="G23">
-        <v>0.94270095999999992</v>
+        <v>0.94265631999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>0.94820000000000004</v>
+        <v>0.95479999999999998</v>
       </c>
       <c r="E24">
-        <v>0.99136160000000006</v>
+        <v>0.99299888000000003</v>
       </c>
       <c r="F24">
         <v>0.87219999999999998</v>
       </c>
       <c r="G24">
-        <v>0.94270352000000002</v>
+        <v>0.94265631999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>0.94820000000000004</v>
+        <v>0.95479999999999998</v>
       </c>
       <c r="E25">
-        <v>0.9913592</v>
+        <v>0.99299888000000003</v>
       </c>
       <c r="F25">
         <v>0.87219999999999998</v>
       </c>
       <c r="G25">
-        <v>0.94270095999999992</v>
+        <v>0.94265631999999999</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>0.94820000000000004</v>
+        <v>0.95479999999999998</v>
       </c>
       <c r="E26">
-        <v>0.99136160000000006</v>
+        <v>0.99299328000000009</v>
       </c>
       <c r="F26">
         <v>0.87219999999999998</v>
       </c>
       <c r="G26">
-        <v>0.94270352000000002</v>
+        <v>0.94264880000000018</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>0.94820000000000004</v>
+        <v>0.95479999999999998</v>
       </c>
       <c r="E27">
-        <v>0.9913592</v>
+        <v>0.99299328000000009</v>
       </c>
       <c r="F27">
         <v>0.87219999999999998</v>
       </c>
       <c r="G27">
-        <v>0.94270095999999992</v>
+        <v>0.94264880000000018</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>0.94820000000000004</v>
+        <v>0.95479999999999998</v>
       </c>
       <c r="E28">
-        <v>0.99136160000000006</v>
+        <v>0.99299328000000009</v>
       </c>
       <c r="F28">
         <v>0.87219999999999998</v>
       </c>
       <c r="G28">
-        <v>0.94270352000000002</v>
+        <v>0.94264880000000018</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>0.94840000000000002</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="E29">
-        <v>0.99135983999999999</v>
+        <v>0.99623919999999999</v>
       </c>
       <c r="F29">
         <v>0.87219999999999998</v>
       </c>
       <c r="G29">
-        <v>0.94269775999999994</v>
+        <v>0.94198863999999982</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>0.94840000000000002</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="E30">
-        <v>0.99136095999999996</v>
+        <v>0.99623919999999999</v>
       </c>
       <c r="F30">
         <v>0.87219999999999998</v>
       </c>
       <c r="G30">
-        <v>0.94270032000000015</v>
+        <v>0.94198863999999982</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="D31">
-        <v>0.9546</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="E31">
-        <v>0.99305135999999994</v>
+        <v>0.99623919999999999</v>
       </c>
       <c r="F31">
         <v>0.87219999999999998</v>
       </c>
       <c r="G31">
-        <v>0.94282911999999985</v>
+        <v>0.94198863999999982</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="D32">
-        <v>0.96860000000000002</v>
+        <v>0.94340000000000002</v>
       </c>
       <c r="E32">
-        <v>0.99623888000000005</v>
+        <v>0.98986719999999995</v>
       </c>
       <c r="F32">
         <v>0.872</v>
       </c>
       <c r="G32">
-        <v>0.9419883200000001</v>
+        <v>0.94249824000000004</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="D33">
-        <v>0.96860000000000002</v>
+        <v>0.94340000000000002</v>
       </c>
       <c r="E33">
-        <v>0.99623888000000005</v>
+        <v>0.98986719999999995</v>
       </c>
       <c r="F33">
         <v>0.872</v>
       </c>
       <c r="G33">
-        <v>0.9419883200000001</v>
+        <v>0.94249824000000004</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="D34">
-        <v>0.96860000000000002</v>
+        <v>0.94340000000000002</v>
       </c>
       <c r="E34">
-        <v>0.99623888000000005</v>
+        <v>0.98986719999999995</v>
       </c>
       <c r="F34">
         <v>0.872</v>
       </c>
       <c r="G34">
-        <v>0.9419883200000001</v>
+        <v>0.94249824000000004</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>0.94340000000000002</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="E35">
-        <v>0.98986719999999995</v>
+        <v>0.99623888000000005</v>
       </c>
       <c r="F35">
         <v>0.872</v>
       </c>
       <c r="G35">
-        <v>0.94249824000000004</v>
+        <v>0.9419883200000001</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>0.94340000000000002</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="E36">
-        <v>0.98986719999999995</v>
+        <v>0.99623888000000005</v>
       </c>
       <c r="F36">
         <v>0.872</v>
       </c>
       <c r="G36">
-        <v>0.94249824000000004</v>
+        <v>0.9419883200000001</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>0.94340000000000002</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="E37">
-        <v>0.98986719999999995</v>
+        <v>0.99623888000000005</v>
       </c>
       <c r="F37">
         <v>0.872</v>
       </c>
       <c r="G37">
-        <v>0.94249824000000004</v>
+        <v>0.9419883200000001</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="B38" t="s">
         <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="D38">
-        <v>0.94399999999999995</v>
+        <v>0.95440000000000003</v>
       </c>
       <c r="E38">
-        <v>0.98987984000000007</v>
+        <v>0.99297151999999989</v>
       </c>
       <c r="F38">
         <v>0.87180000000000002</v>
       </c>
       <c r="G38">
-        <v>0.94249759999999994</v>
+        <v>0.94277055999999992</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
         <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="D39">
-        <v>0.94399999999999995</v>
+        <v>0.95440000000000003</v>
       </c>
       <c r="E39">
-        <v>0.98988047999999995</v>
+        <v>0.99297151999999989</v>
       </c>
       <c r="F39">
         <v>0.87180000000000002</v>
       </c>
       <c r="G39">
-        <v>0.94249535999999989</v>
+        <v>0.94277055999999992</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="D40">
-        <v>0.94399999999999995</v>
+        <v>0.95440000000000003</v>
       </c>
       <c r="E40">
-        <v>0.98987984000000007</v>
+        <v>0.99297151999999989</v>
       </c>
       <c r="F40">
         <v>0.87180000000000002</v>
       </c>
       <c r="G40">
-        <v>0.94249759999999994</v>
+        <v>0.94277055999999992</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D41">
-        <v>0.94399999999999995</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="E41">
-        <v>0.98988047999999995</v>
+        <v>0.99136336000000014</v>
       </c>
       <c r="F41">
         <v>0.87180000000000002</v>
       </c>
       <c r="G41">
-        <v>0.94249535999999989</v>
+        <v>0.94270112000000006</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
         <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D42">
-        <v>0.94399999999999995</v>
+        <v>0.94840000000000002</v>
       </c>
       <c r="E42">
-        <v>0.98987984000000007</v>
+        <v>0.99137135999999992</v>
       </c>
       <c r="F42">
         <v>0.87180000000000002</v>
       </c>
       <c r="G42">
-        <v>0.94249759999999994</v>
+        <v>0.9426940800000001</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
         <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D43">
-        <v>0.94399999999999995</v>
+        <v>0.94840000000000002</v>
       </c>
       <c r="E43">
-        <v>0.98988047999999995</v>
+        <v>0.99136592000000001</v>
       </c>
       <c r="F43">
         <v>0.87180000000000002</v>
       </c>
       <c r="G43">
-        <v>0.94249535999999989</v>
+        <v>0.9426940800000001</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
         <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44">
-        <v>0.94399999999999995</v>
+        <v>0.94359999999999999</v>
       </c>
       <c r="E44">
-        <v>0.98987663999999997</v>
+        <v>0.98988720000000008</v>
       </c>
       <c r="F44">
         <v>0.87180000000000002</v>
       </c>
       <c r="G44">
-        <v>0.94250144000000002</v>
+        <v>0.94250559999999994</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
         <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45">
-        <v>0.94379999999999997</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E45">
-        <v>0.98987871999999999</v>
+        <v>0.98987663999999997</v>
       </c>
       <c r="F45">
         <v>0.87180000000000002</v>
       </c>
       <c r="G45">
-        <v>0.9424940799999999</v>
+        <v>0.94250144000000002</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
         <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D46">
-        <v>0.94359999999999999</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E46">
-        <v>0.98988720000000008</v>
+        <v>0.98987984000000007</v>
       </c>
       <c r="F46">
         <v>0.87180000000000002</v>
       </c>
       <c r="G46">
-        <v>0.94250559999999994</v>
+        <v>0.94249759999999994</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
         <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D47">
         <v>0.94399999999999995</v>
       </c>
       <c r="E47">
-        <v>0.98988160000000003</v>
+        <v>0.98987984000000007</v>
       </c>
       <c r="F47">
         <v>0.87180000000000002</v>
       </c>
       <c r="G47">
-        <v>0.94249136000000011</v>
+        <v>0.94249759999999994</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
         <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D48">
-        <v>0.94379999999999997</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E48">
-        <v>0.98988223999999991</v>
+        <v>0.98987984000000007</v>
       </c>
       <c r="F48">
         <v>0.87180000000000002</v>
       </c>
       <c r="G48">
-        <v>0.94249024000000003</v>
+        <v>0.94249759999999994</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
         <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="D49">
-        <v>0.94799999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E49">
-        <v>0.99136336000000014</v>
+        <v>0.98988047999999995</v>
       </c>
       <c r="F49">
         <v>0.87180000000000002</v>
       </c>
       <c r="G49">
-        <v>0.94270112000000006</v>
+        <v>0.94249535999999989</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
         <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="D50">
-        <v>0.94840000000000002</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E50">
-        <v>0.99137135999999992</v>
+        <v>0.98988047999999995</v>
       </c>
       <c r="F50">
         <v>0.87180000000000002</v>
       </c>
       <c r="G50">
-        <v>0.9426940800000001</v>
+        <v>0.94249535999999989</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
         <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D51">
-        <v>0.94840000000000002</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E51">
-        <v>0.99136592000000001</v>
+        <v>0.98988047999999995</v>
       </c>
       <c r="F51">
         <v>0.87180000000000002</v>
       </c>
       <c r="G51">
-        <v>0.9426940800000001</v>
+        <v>0.94249535999999989</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
         <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D52">
-        <v>0.95440000000000003</v>
+        <v>0.94379999999999997</v>
       </c>
       <c r="E52">
-        <v>0.99297151999999989</v>
+        <v>0.98987871999999999</v>
       </c>
       <c r="F52">
         <v>0.87180000000000002</v>
       </c>
       <c r="G52">
-        <v>0.94277055999999992</v>
+        <v>0.9424940799999999</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
         <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="D53">
-        <v>0.95440000000000003</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E53">
-        <v>0.99297151999999989</v>
+        <v>0.98988160000000003</v>
       </c>
       <c r="F53">
         <v>0.87180000000000002</v>
       </c>
       <c r="G53">
-        <v>0.94277055999999992</v>
+        <v>0.94249136000000011</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D54">
-        <v>0.95440000000000003</v>
+        <v>0.94379999999999997</v>
       </c>
       <c r="E54">
-        <v>0.99297151999999989</v>
+        <v>0.98988223999999991</v>
       </c>
       <c r="F54">
         <v>0.87180000000000002</v>
       </c>
       <c r="G54">
-        <v>0.94277055999999992</v>
+        <v>0.94249024000000003</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="B55" t="s">
         <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="D55">
-        <v>0.94379999999999997</v>
+        <v>0.95440000000000003</v>
       </c>
       <c r="E55">
-        <v>0.98989391999999998</v>
+        <v>0.99303936000000015</v>
       </c>
       <c r="F55">
         <v>0.87160000000000004</v>
       </c>
       <c r="G55">
-        <v>0.94247312000000005</v>
+        <v>0.94283024000000015</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
         <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="D56">
-        <v>0.95440000000000003</v>
+        <v>0.94379999999999997</v>
       </c>
       <c r="E56">
-        <v>0.99303936000000015</v>
+        <v>0.98989391999999998</v>
       </c>
       <c r="F56">
         <v>0.87160000000000004</v>
       </c>
       <c r="G56">
-        <v>0.94283024000000015</v>
+        <v>0.94247312000000005</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="B57" t="s">
         <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="D57">
-        <v>0.9486</v>
+        <v>0.96260000000000001</v>
       </c>
       <c r="E57">
-        <v>0.99137231999999997</v>
+        <v>0.99493407999999994</v>
       </c>
       <c r="F57">
         <v>0.87139999999999995</v>
       </c>
       <c r="G57">
-        <v>0.94268992000000007</v>
+        <v>0.94274895999999997</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
         <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="D58">
-        <v>0.96260000000000001</v>
+        <v>0.9486</v>
       </c>
       <c r="E58">
-        <v>0.99493407999999994</v>
+        <v>0.99137231999999997</v>
       </c>
       <c r="F58">
         <v>0.87139999999999995</v>
       </c>
       <c r="G58">
-        <v>0.94274895999999997</v>
+        <v>0.94268992000000007</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="D59">
-        <v>0.96220000000000006</v>
+        <v>0.94340000000000002</v>
       </c>
       <c r="E59">
-        <v>0.99495487999999999</v>
+        <v>0.98946159999999994</v>
       </c>
       <c r="F59">
         <v>0.87119999999999997</v>
       </c>
       <c r="G59">
-        <v>0.94245487999999999</v>
+        <v>0.94325808</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="D60">
-        <v>0.96220000000000006</v>
+        <v>0.94340000000000002</v>
       </c>
       <c r="E60">
-        <v>0.99495423999999999</v>
+        <v>0.98946159999999994</v>
       </c>
       <c r="F60">
         <v>0.87119999999999997</v>
       </c>
       <c r="G60">
-        <v>0.94245536000000008</v>
+        <v>0.94325808</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="D61">
-        <v>0.96220000000000006</v>
+        <v>0.94340000000000002</v>
       </c>
       <c r="E61">
-        <v>0.99495487999999999</v>
+        <v>0.98946159999999994</v>
       </c>
       <c r="F61">
         <v>0.87119999999999997</v>
       </c>
       <c r="G61">
-        <v>0.94245487999999999</v>
+        <v>0.94325808</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="D62">
-        <v>0.96220000000000006</v>
+        <v>0.96260000000000001</v>
       </c>
       <c r="E62">
-        <v>0.99495423999999999</v>
+        <v>0.99493744000000006</v>
       </c>
       <c r="F62">
         <v>0.87119999999999997</v>
       </c>
       <c r="G62">
-        <v>0.94245536000000008</v>
+        <v>0.94271759999999993</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="D63">
-        <v>0.96220000000000006</v>
+        <v>0.96260000000000001</v>
       </c>
       <c r="E63">
-        <v>0.99495487999999999</v>
+        <v>0.99492863999999992</v>
       </c>
       <c r="F63">
         <v>0.87119999999999997</v>
       </c>
       <c r="G63">
-        <v>0.94245487999999999</v>
+        <v>0.94270047999999984</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D64">
         <v>0.96220000000000006</v>
@@ -2456,255 +2463,255 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="D65">
-        <v>0.94340000000000002</v>
+        <v>0.96220000000000006</v>
       </c>
       <c r="E65">
-        <v>0.98946159999999994</v>
+        <v>0.99495423999999999</v>
       </c>
       <c r="F65">
         <v>0.87119999999999997</v>
       </c>
       <c r="G65">
-        <v>0.94325808</v>
+        <v>0.94245536000000008</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="D66">
-        <v>0.94340000000000002</v>
+        <v>0.96220000000000006</v>
       </c>
       <c r="E66">
-        <v>0.98946159999999994</v>
+        <v>0.99495423999999999</v>
       </c>
       <c r="F66">
         <v>0.87119999999999997</v>
       </c>
       <c r="G66">
-        <v>0.94325808</v>
+        <v>0.94245536000000008</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="D67">
-        <v>0.94340000000000002</v>
+        <v>0.96220000000000006</v>
       </c>
       <c r="E67">
-        <v>0.98946159999999994</v>
+        <v>0.99495487999999999</v>
       </c>
       <c r="F67">
         <v>0.87119999999999997</v>
       </c>
       <c r="G67">
-        <v>0.94325808</v>
+        <v>0.94245487999999999</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="D68">
-        <v>0.96260000000000001</v>
+        <v>0.96220000000000006</v>
       </c>
       <c r="E68">
-        <v>0.99492863999999992</v>
+        <v>0.99495487999999999</v>
       </c>
       <c r="F68">
         <v>0.87119999999999997</v>
       </c>
       <c r="G68">
-        <v>0.94270047999999984</v>
+        <v>0.94245487999999999</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="D69">
-        <v>0.96260000000000001</v>
+        <v>0.96220000000000006</v>
       </c>
       <c r="E69">
-        <v>0.99493744000000006</v>
+        <v>0.99495487999999999</v>
       </c>
       <c r="F69">
         <v>0.87119999999999997</v>
       </c>
       <c r="G69">
-        <v>0.94271759999999993</v>
+        <v>0.94245487999999999</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
         <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D70">
         <v>0.9546</v>
       </c>
       <c r="E70">
-        <v>0.99302880000000004</v>
+        <v>0.99303183999999989</v>
       </c>
       <c r="F70">
         <v>0.871</v>
       </c>
       <c r="G70">
-        <v>0.94281263999999998</v>
+        <v>0.94282160000000004</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B71" t="s">
         <v>107</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D71">
         <v>0.9546</v>
       </c>
       <c r="E71">
-        <v>0.99302880000000004</v>
+        <v>0.99303231999999997</v>
       </c>
       <c r="F71">
         <v>0.871</v>
       </c>
       <c r="G71">
-        <v>0.94281263999999998</v>
+        <v>0.94281903999999994</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
         <v>107</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D72">
-        <v>0.9546</v>
+        <v>0.95440000000000003</v>
       </c>
       <c r="E72">
-        <v>0.99302880000000004</v>
+        <v>0.99303248</v>
       </c>
       <c r="F72">
         <v>0.871</v>
       </c>
       <c r="G72">
-        <v>0.94281263999999998</v>
+        <v>0.94281280000000001</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
         <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D73">
         <v>0.9546</v>
       </c>
       <c r="E73">
-        <v>0.99303231999999997</v>
+        <v>0.99302880000000004</v>
       </c>
       <c r="F73">
         <v>0.871</v>
       </c>
       <c r="G73">
-        <v>0.94281903999999994</v>
+        <v>0.94281263999999998</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
         <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D74">
         <v>0.9546</v>
       </c>
       <c r="E74">
-        <v>0.99303183999999989</v>
+        <v>0.99302880000000004</v>
       </c>
       <c r="F74">
         <v>0.871</v>
       </c>
       <c r="G74">
-        <v>0.94282160000000004</v>
+        <v>0.94281263999999998</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B75" t="s">
         <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D75">
-        <v>0.95440000000000003</v>
+        <v>0.9546</v>
       </c>
       <c r="E75">
-        <v>0.99303248</v>
+        <v>0.99302880000000004</v>
       </c>
       <c r="F75">
         <v>0.871</v>
       </c>
       <c r="G75">
-        <v>0.94281280000000001</v>
+        <v>0.94281263999999998</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2778,36 +2785,36 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
         <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D79">
         <v>0.9546</v>
       </c>
       <c r="E79">
-        <v>0.99303135999999981</v>
+        <v>0.99305072000000005</v>
       </c>
       <c r="F79">
         <v>0.87080000000000002</v>
       </c>
       <c r="G79">
-        <v>0.94281472</v>
+        <v>0.94285711999999999</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
         <v>107</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D80">
         <v>0.9546</v>
@@ -2824,13 +2831,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
         <v>107</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D81">
         <v>0.9546</v>
@@ -2847,25 +2854,25 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
         <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D82">
         <v>0.9546</v>
       </c>
       <c r="E82">
-        <v>0.99305072000000005</v>
+        <v>0.99303135999999981</v>
       </c>
       <c r="F82">
         <v>0.87080000000000002</v>
       </c>
       <c r="G82">
-        <v>0.94285711999999999</v>
+        <v>0.94281472</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2893,36 +2900,36 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
         <v>107</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D84">
         <v>0.96260000000000001</v>
       </c>
       <c r="E84">
-        <v>0.99493648000000001</v>
+        <v>0.99493951999999997</v>
       </c>
       <c r="F84">
         <v>0.87060000000000004</v>
       </c>
       <c r="G84">
-        <v>0.94271391999999998</v>
+        <v>0.94271952000000003</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B85" t="s">
         <v>107</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D85">
         <v>0.96260000000000001</v>
@@ -2939,59 +2946,59 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
         <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D86">
         <v>0.96260000000000001</v>
       </c>
       <c r="E86">
-        <v>0.99493648000000001</v>
+        <v>0.99493951999999997</v>
       </c>
       <c r="F86">
         <v>0.87060000000000004</v>
       </c>
       <c r="G86">
-        <v>0.94271391999999998</v>
+        <v>0.94271952000000003</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
         <v>107</v>
       </c>
       <c r="C87" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D87">
         <v>0.96260000000000001</v>
       </c>
       <c r="E87">
-        <v>0.99493951999999997</v>
+        <v>0.99493648000000001</v>
       </c>
       <c r="F87">
         <v>0.87060000000000004</v>
       </c>
       <c r="G87">
-        <v>0.94271952000000003</v>
+        <v>0.94271391999999998</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
         <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D88">
         <v>0.96260000000000001</v>
@@ -3008,25 +3015,25 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
         <v>107</v>
       </c>
       <c r="C89" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D89">
         <v>0.96260000000000001</v>
       </c>
       <c r="E89">
-        <v>0.99493951999999997</v>
+        <v>0.99493648000000001</v>
       </c>
       <c r="F89">
         <v>0.87060000000000004</v>
       </c>
       <c r="G89">
-        <v>0.94271952000000003</v>
+        <v>0.94271391999999998</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3215,140 +3222,140 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D98">
         <v>0.94720000000000004</v>
       </c>
       <c r="E98">
-        <v>0.99063279999999987</v>
+        <v>0.99063279999999998</v>
       </c>
       <c r="F98">
         <v>0.86860000000000004</v>
       </c>
       <c r="G98">
-        <v>0.94117472000000002</v>
+        <v>0.94117664000000001</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D99">
         <v>0.94720000000000004</v>
       </c>
       <c r="E99">
-        <v>0.99063183999999993</v>
+        <v>0.99063327999999984</v>
       </c>
       <c r="F99">
         <v>0.86860000000000004</v>
       </c>
       <c r="G99">
-        <v>0.94117567999999996</v>
+        <v>0.94117631999999996</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D100">
         <v>0.94720000000000004</v>
       </c>
       <c r="E100">
-        <v>0.99063279999999998</v>
+        <v>0.99063183999999993</v>
       </c>
       <c r="F100">
         <v>0.86860000000000004</v>
       </c>
       <c r="G100">
-        <v>0.94117664000000001</v>
+        <v>0.94117567999999996</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D101">
         <v>0.94720000000000004</v>
       </c>
       <c r="E101">
-        <v>0.99063168000000001</v>
+        <v>0.99063184000000004</v>
       </c>
       <c r="F101">
         <v>0.86860000000000004</v>
       </c>
       <c r="G101">
-        <v>0.94117503999999996</v>
+        <v>0.94117519999999999</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D102">
         <v>0.94720000000000004</v>
       </c>
       <c r="E102">
-        <v>0.99063327999999984</v>
+        <v>0.99063168000000001</v>
       </c>
       <c r="F102">
         <v>0.86860000000000004</v>
       </c>
       <c r="G102">
-        <v>0.94117631999999996</v>
+        <v>0.94117503999999996</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D103">
         <v>0.94720000000000004</v>
       </c>
       <c r="E103">
-        <v>0.99063184000000004</v>
+        <v>0.99063279999999987</v>
       </c>
       <c r="F103">
         <v>0.86860000000000004</v>
       </c>
       <c r="G103">
-        <v>0.94117519999999999</v>
+        <v>0.94117472000000002</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3399,36 +3406,36 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D106">
         <v>0.93020000000000003</v>
       </c>
       <c r="E106">
-        <v>0.98336431999999996</v>
+        <v>0.98336400000000002</v>
       </c>
       <c r="F106">
         <v>0.86799999999999999</v>
       </c>
       <c r="G106">
-        <v>0.94082591999999998</v>
+        <v>0.94082592000000009</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D107">
         <v>0.93020000000000003</v>
@@ -3445,13 +3452,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B108" t="s">
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D108">
         <v>0.93020000000000003</v>
@@ -3468,25 +3475,25 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109" t="s">
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D109">
         <v>0.93020000000000003</v>
       </c>
       <c r="E109">
-        <v>0.98336400000000002</v>
+        <v>0.98336431999999996</v>
       </c>
       <c r="F109">
         <v>0.86799999999999999</v>
       </c>
       <c r="G109">
-        <v>0.94082592000000009</v>
+        <v>0.94082591999999998</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3514,25 +3521,25 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B111" t="s">
         <v>107</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D111">
         <v>0.93020000000000003</v>
       </c>
       <c r="E111">
-        <v>0.98335968000000007</v>
+        <v>0.98336272000000002</v>
       </c>
       <c r="F111">
         <v>0.86799999999999999</v>
       </c>
       <c r="G111">
-        <v>0.94081919999999986</v>
+        <v>0.94082032000000004</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3560,25 +3567,25 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>107</v>
       </c>
       <c r="C113" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D113">
         <v>0.93020000000000003</v>
       </c>
       <c r="E113">
-        <v>0.98336272000000002</v>
+        <v>0.98335968000000007</v>
       </c>
       <c r="F113">
         <v>0.86799999999999999</v>
       </c>
       <c r="G113">
-        <v>0.94082032000000004</v>
+        <v>0.94081919999999986</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3606,117 +3613,117 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D115">
         <v>0.92759999999999998</v>
       </c>
       <c r="E115">
-        <v>0.98335312000000008</v>
+        <v>0.98335264</v>
       </c>
       <c r="F115">
         <v>0.86780000000000002</v>
       </c>
       <c r="G115">
-        <v>0.94137199999999999</v>
+        <v>0.94137232000000004</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D116">
         <v>0.92759999999999998</v>
       </c>
       <c r="E116">
-        <v>0.98335328</v>
+        <v>0.98335312000000008</v>
       </c>
       <c r="F116">
         <v>0.86780000000000002</v>
       </c>
       <c r="G116">
-        <v>0.94137056000000008</v>
+        <v>0.94137199999999999</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D117">
         <v>0.92759999999999998</v>
       </c>
       <c r="E117">
-        <v>0.98335296000000005</v>
+        <v>0.9833527999999998</v>
       </c>
       <c r="F117">
         <v>0.86780000000000002</v>
       </c>
       <c r="G117">
-        <v>0.94137168000000004</v>
+        <v>0.94137184000000007</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D118">
         <v>0.92759999999999998</v>
       </c>
       <c r="E118">
-        <v>0.98335264</v>
+        <v>0.98335296000000005</v>
       </c>
       <c r="F118">
         <v>0.86780000000000002</v>
       </c>
       <c r="G118">
-        <v>0.94137232000000004</v>
+        <v>0.94137168000000004</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D119">
         <v>0.92759999999999998</v>
       </c>
       <c r="E119">
-        <v>0.9833527999999998</v>
+        <v>0.98335328</v>
       </c>
       <c r="F119">
         <v>0.86780000000000002</v>
       </c>
       <c r="G119">
-        <v>0.94137184000000007</v>
+        <v>0.94137056000000008</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3836,25 +3843,25 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D125">
         <v>0.92379999999999995</v>
       </c>
       <c r="E125">
-        <v>0.98043807999999999</v>
+        <v>0.98043839999999993</v>
       </c>
       <c r="F125">
         <v>0.86719999999999997</v>
       </c>
       <c r="G125">
-        <v>0.94067648000000004</v>
+        <v>0.94067680000000009</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3882,25 +3889,25 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D127">
         <v>0.92379999999999995</v>
       </c>
       <c r="E127">
-        <v>0.98043839999999993</v>
+        <v>0.98043807999999999</v>
       </c>
       <c r="F127">
         <v>0.86719999999999997</v>
       </c>
       <c r="G127">
-        <v>0.94067680000000009</v>
+        <v>0.94067648000000004</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3928,42 +3935,42 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D129">
         <v>0.91400000000000003</v>
       </c>
       <c r="E129">
-        <v>0.97653680000000009</v>
+        <v>0.97653712000000004</v>
       </c>
       <c r="F129">
         <v>0.86360000000000003</v>
       </c>
       <c r="G129">
-        <v>0.93884880000000015</v>
+        <v>0.93884944000000004</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D130">
         <v>0.91400000000000003</v>
       </c>
       <c r="E130">
-        <v>0.97653712000000004</v>
+        <v>0.97653696000000012</v>
       </c>
       <c r="F130">
         <v>0.86360000000000003</v>
@@ -3974,13 +3981,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D131">
         <v>0.91400000000000003</v>
@@ -3992,30 +3999,30 @@
         <v>0.86360000000000003</v>
       </c>
       <c r="G131">
-        <v>0.93884864000000001</v>
+        <v>0.93884880000000015</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D132">
         <v>0.91400000000000003</v>
       </c>
       <c r="E132">
-        <v>0.97653696000000012</v>
+        <v>0.97653680000000009</v>
       </c>
       <c r="F132">
         <v>0.86360000000000003</v>
       </c>
       <c r="G132">
-        <v>0.93884944000000004</v>
+        <v>0.93884864000000001</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4089,25 +4096,25 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D136">
         <v>0.96299999999999997</v>
       </c>
       <c r="E136">
-        <v>0.99498847999999995</v>
+        <v>0.99498783999999996</v>
       </c>
       <c r="F136">
         <v>0.86199999999999999</v>
       </c>
       <c r="G136">
-        <v>0.93748256000000008</v>
+        <v>0.9374841599999999</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4158,59 +4165,59 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D139">
         <v>0.96299999999999997</v>
       </c>
       <c r="E139">
-        <v>0.99498783999999996</v>
+        <v>0.99498847999999995</v>
       </c>
       <c r="F139">
         <v>0.86199999999999999</v>
       </c>
       <c r="G139">
-        <v>0.9374841599999999</v>
+        <v>0.93748256000000008</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D140">
         <v>0.98260000000000003</v>
       </c>
       <c r="E140">
-        <v>0.99875103999999992</v>
+        <v>0.99875184000000006</v>
       </c>
       <c r="F140">
         <v>0.86140000000000005</v>
       </c>
       <c r="G140">
-        <v>0.9390353600000001</v>
+        <v>0.93903695999999992</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D141">
         <v>0.98260000000000003</v>
@@ -4227,59 +4234,59 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D142">
         <v>0.98260000000000003</v>
       </c>
       <c r="E142">
-        <v>0.99875103999999992</v>
+        <v>0.99875184000000006</v>
       </c>
       <c r="F142">
         <v>0.86140000000000005</v>
       </c>
       <c r="G142">
-        <v>0.9390353600000001</v>
+        <v>0.93903695999999992</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D143">
         <v>0.98260000000000003</v>
       </c>
       <c r="E143">
-        <v>0.99875184000000006</v>
+        <v>0.99875103999999992</v>
       </c>
       <c r="F143">
         <v>0.86140000000000005</v>
       </c>
       <c r="G143">
-        <v>0.93903695999999992</v>
+        <v>0.9390353600000001</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D144">
         <v>0.98260000000000003</v>
@@ -4296,25 +4303,25 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D145">
         <v>0.98260000000000003</v>
       </c>
       <c r="E145">
-        <v>0.99875184000000006</v>
+        <v>0.99875103999999992</v>
       </c>
       <c r="F145">
         <v>0.86140000000000005</v>
       </c>
       <c r="G145">
-        <v>0.93903695999999992</v>
+        <v>0.9390353600000001</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4595,36 +4602,36 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D158">
         <v>0.97799999999999998</v>
       </c>
       <c r="E158">
-        <v>0.99729327999999995</v>
+        <v>0.99729407999999997</v>
       </c>
       <c r="F158">
         <v>0.85099999999999998</v>
       </c>
       <c r="G158">
-        <v>0.93148416000000001</v>
+        <v>0.93148607999999999</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D159">
         <v>0.97799999999999998</v>
@@ -4636,76 +4643,76 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="G159">
-        <v>0.93148607999999999</v>
+        <v>0.93148560000000002</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D160">
         <v>0.97799999999999998</v>
       </c>
       <c r="E160">
-        <v>0.99729376000000003</v>
+        <v>0.99729343999999998</v>
       </c>
       <c r="F160">
         <v>0.85099999999999998</v>
       </c>
       <c r="G160">
-        <v>0.93148032000000003</v>
+        <v>0.93148432000000003</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D161">
         <v>0.97799999999999998</v>
       </c>
       <c r="E161">
-        <v>0.99729343999999998</v>
+        <v>0.99729327999999995</v>
       </c>
       <c r="F161">
         <v>0.85099999999999998</v>
       </c>
       <c r="G161">
-        <v>0.93148432000000003</v>
+        <v>0.93148416000000001</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D162">
         <v>0.97799999999999998</v>
       </c>
       <c r="E162">
-        <v>0.99729407999999997</v>
+        <v>0.99729376000000003</v>
       </c>
       <c r="F162">
         <v>0.85099999999999998</v>
       </c>
       <c r="G162">
-        <v>0.93148560000000002</v>
+        <v>0.93148032000000003</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5032,48 +5039,48 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B177" t="s">
         <v>79</v>
       </c>
       <c r="C177" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D177">
-        <v>0.87239999999999995</v>
+        <v>0.874</v>
       </c>
       <c r="E177">
-        <v>0.95506848000000011</v>
+        <v>0.95623024000000001</v>
       </c>
       <c r="F177">
         <v>0.83520000000000005</v>
       </c>
       <c r="G177">
-        <v>0.91364192</v>
+        <v>0.91455184</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B178" t="s">
         <v>79</v>
       </c>
       <c r="C178" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D178">
-        <v>0.874</v>
+        <v>0.87239999999999995</v>
       </c>
       <c r="E178">
-        <v>0.95623024000000001</v>
+        <v>0.95506848000000011</v>
       </c>
       <c r="F178">
         <v>0.83520000000000005</v>
       </c>
       <c r="G178">
-        <v>0.91455184</v>
+        <v>0.91364192</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
